--- a/Timing data.xlsx
+++ b/Timing data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{24C02B3B-0ACB-40D5-9F54-C2AA49CE9624}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{24C02B3B-0ACB-40D5-9F54-C2AA49CE9624}"/>
   </bookViews>
   <sheets>
     <sheet name="Timing" sheetId="1" r:id="rId1"/>
+    <sheet name="Plot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Serial</t>
   </si>
@@ -241,6 +242,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9933"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -250,6 +256,1627 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Serial (Threads = 4 or 8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plot!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plot!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.013999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29575099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8DD-4B7F-A813-AA962450E063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Threads.@threads with 4 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plot!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plot!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.8469999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9510999999999993E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C8DD-4B7F-A813-AA962450E063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Threads.@threads with 8 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050">
+                  <a:alpha val="96000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plot!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plot!$J$5:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.5010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2836999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C8DD-4B7F-A813-AA962450E063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>SharedArray @parallel 1 worker (Threads = 4 or 8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plot!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plot!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>76.813999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86397000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8DD-4B7F-A813-AA962450E063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>SharedArray @parallel 3 workers (Threads = 4 or 8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plot!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plot!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30.558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C8DD-4B7F-A813-AA962450E063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>SharedArray @parallel 9 workers (Threads = 4 or 8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plot!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plot!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>31.841999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.662000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3949999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C8DD-4B7F-A813-AA962450E063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>SharedArray chunks 1 worker (Threads = 4 or 8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plot!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plot!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>429.88900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9780000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C8DD-4B7F-A813-AA962450E063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>SharedArray chunks 3 workers (Threads = 4 or 8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plot!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plot!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>578.18799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.86600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C8DD-4B7F-A813-AA962450E063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>SharedArray chunks 9 workers (Threads = 4 or 8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plot!$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plot!$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C8DD-4B7F-A813-AA962450E063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="215792752"/>
+        <c:axId val="215797016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="215792752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>Number of particles in simulation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="215797016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="215797016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                  <a:t> in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="215792752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62649143553884123"/>
+          <c:y val="0.28768119124551661"/>
+          <c:w val="0.36418020625220354"/>
+          <c:h val="0.41401344752224695"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9416758-808E-42E9-B74F-7E40D3737D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7B2D6B-0CD7-4622-B04C-EE183374D92C}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,4 +2430,272 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106C71EC-6C13-459C-9D30-2242E87E65EF}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>27.013999999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>76.813999999999993</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30.558</v>
+      </c>
+      <c r="F2" s="1">
+        <v>31.841999999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>429.88900000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>578.18799999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8.8469999999999995</v>
+      </c>
+      <c r="K2">
+        <f>C2/J2</f>
+        <v>3.0534644512264046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.7450000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>19.282</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.42</v>
+      </c>
+      <c r="F3" s="1">
+        <v>13.662000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>101.982</v>
+      </c>
+      <c r="H3" s="1">
+        <v>138.86600000000001</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="0">C3/J3</f>
+        <v>2.9010752688172041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <f>295.751/1000</f>
+        <v>0.29575099999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <f>863.97/1000</f>
+        <v>0.86397000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.78</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.3949999999999996</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.9780000000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7.43</v>
+      </c>
+      <c r="I4" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="J4" s="1">
+        <f>89.511/1000</f>
+        <v>8.9510999999999993E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>3.3040743595759183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>26.66</v>
+      </c>
+      <c r="D5" s="1">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30.503</v>
+      </c>
+      <c r="F5" s="1">
+        <v>31.788</v>
+      </c>
+      <c r="G5" s="1">
+        <v>414.58800000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>555.31399999999996</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6.5010000000000003</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>4.1009075526842018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.7839999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>19.195</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.3629999999999995</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13.218</v>
+      </c>
+      <c r="G6" s="1">
+        <v>99.578999999999994</v>
+      </c>
+      <c r="H6" s="1">
+        <v>139.72300000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.766</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.8414496036240089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <f>270.514/1000</f>
+        <v>0.27051400000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <f>864.326/1000</f>
+        <v>0.86432600000000004</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.4590000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8.7309999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.0149999999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7.4420000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>19.619</v>
+      </c>
+      <c r="J7" s="1">
+        <f>72.837/1000</f>
+        <v>7.2836999999999999E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3.7139640567294099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Timing data.xlsx
+++ b/Timing data.xlsx
@@ -2178,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7B2D6B-0CD7-4622-B04C-EE183374D92C}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2437,7 +2437,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L1" sqref="L1:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
